--- a/한국등산트레킹지원센터_100대명산/python/mountain_info.xlsx
+++ b/한국등산트레킹지원센터_100대명산/python/mountain_info.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>보덕암 화장실 / 자연경관</t>
+          <t>수산교 농산물 판매장</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>입구</t>
+          <t>신륵사 입구</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>식당,펜션 / 안내소</t>
+          <t>식당</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>송계계곡</t>
+          <t>식당,펜션</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>벤치와 테이블 / 도솔천</t>
+          <t>벤치와 테이블</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>고향식당</t>
+          <t>대형주차장</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>국 / 갈림길</t>
+          <t>도솔제 전경</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>선운초서문화관 / 쉼터광장</t>
+          <t>식당가 :실내보다 실외 테라스를 모두 갖춤</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>의자 / 갈림길</t>
+          <t>초록지기숲속체험장</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>테마공원 설립지</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>갈림길 / 출렁다리</t>
+          <t>공영 제5주차장</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>비선폭포</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>태화산정상</t>
+          <t>큰골버스승강장</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>입산금지</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>고씨굴</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>등산로폐쇄</t>
+          <t>흥국사</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>유료주차장</t>
+          <t>삼악산정류장(1851, 강촌유원지 방면)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>봉덕사 입구(버스정류장)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>웨이포인트 11</t>
+          <t>웨이포인트 12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>구연마을 / 얼음골버스정류장</t>
+          <t>미림정식당편의점</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>재약산 / 웨이포인트 38 / 웨이포인트 39 / 웨이포인트 40 / 웨이포인트 41 / 웨이포인트 42 / 웨이포인트 43 / 웨이포인트 44 / 자연경관 / 웨이포인트 46</t>
+          <t>ㅇㅇ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>청평사관광지</t>
+          <t>청평산장및 식당가</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>환적당과 설화당 부도</t>
+          <t>기우단터</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>웨이포인트 66</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>팔영산 탐방센터 주차장 / 팔영산  탐방센터</t>
+          <t>고흥군 내버스 증강장</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>칠갑산 휴게소</t>
+          <t>버스 정류장</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>칠갑산자연휴양림 야영장</t>
+          <t>칠갑산자연휴양림</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>간이화장실</t>
+          <t>둥구나무 밑 쉼터</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>공부를</t>
+          <t>칠갑산용못고을가든</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>선녀폭포</t>
+          <t>대둔산승전탑</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>상황석문</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>묘봉(암릉)</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>천왕봉 주차장(유료)</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>부봉등산안내도 / 문경새재길</t>
+          <t>조령원터</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>혜국사 나가는길 / 불상탑</t>
+          <t>행사임시주차장</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>청량사 석등 / 청량사 삼층석탑 / 청량사 석조석가여래좌상</t>
+          <t>청량사</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>가야호텔사우나</t>
+          <t>성주가든</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>자연경관</t>
+          <t>정상부</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>백운암지</t>
+          <t>가야산 역사신화 공원</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>수다라카페</t>
+          <t>해인사관광안내소</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>날머리 안내소</t>
+          <t>안내소 화장실</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>입석쉼터</t>
+          <t>청량산 휴게소.매점</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>두실마을 농산물장터</t>
+          <t>(날머리)청량폭포,두들마을 입구</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>황석산 관광안내</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>금원산 산림자원관리소</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>선녀담</t>
+          <t>입구화장실</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>용리사지2</t>
+          <t>돌산</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>오산 주차장 / 남여 화장실</t>
+          <t>비슬산 용천사</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>쉼터5</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>유가사 천왕봉 등산객 전용 주차장</t>
+          <t>유가사종점(버스ID 05468)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>문화관광 안내소</t>
+          <t>유가사 계곡</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>한라산둘레길 숲길센터 / 사려니숲길 붉은오름 입출구</t>
+          <t>붉은오름 정류소</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>천아수원지 둘레길 입출구</t>
+          <t>한라산둘레길(천아숲길 밉구)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>돌오름입구 쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>돈내코안내소</t>
+          <t>돈내코안내소 입구</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>국립공원관리사무소</t>
+          <t>관음사음식점</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>장가네식당</t>
+          <t>황장산 공영주차장 화장실</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>큰나무집 / 버드나무백숙</t>
+          <t>공영주차장</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>잔디광장 / 금오산 공영주차장</t>
+          <t>금오산 식당가</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>신흥사 부도군</t>
+          <t>소공원 주차장</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>대청봉</t>
+          <t>공룡능선</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>갈림길 / 오색약수</t>
+          <t>오색지구 식당가</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>설악동탐방지원센터</t>
+          <t>설악산 매표소</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>일주문</t>
+          <t>입주문앞</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>남여치주차장</t>
+          <t>남여치</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>입암전망대</t>
+          <t>입암</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>청림마을</t>
+          <t>마을에서 본 봉</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>쉄터6</t>
+          <t>감불마을</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>날머리</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>갈림길 / 쉼터</t>
+          <t>등산로안내판</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>참나무6형제</t>
+          <t>계방산입구</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>구병산</t>
+          <t>보호수</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>미륵동 약수터</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>등산로 입구</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>세포마을 등산로 들날머리</t>
+          <t>미수 휴먼시아 하차장</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>띠밭등약수터</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>산책로 화장실</t>
+          <t>케이블카 승강장</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>산책로화장실</t>
+          <t>연화봉 정상</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>웨이포인트 20</t>
+          <t>웨이포인트 21</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>천년수</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>가지산 석남사 / 매표소</t>
+          <t>버스</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>호박소</t>
+          <t>호박소 계곡</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>부도</t>
+          <t>쉼터</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>불당폭포 상부</t>
+          <t>불당폭포 하부</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>마이산 조망점</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>사루개소류지입구</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>강정리근대한옥마을 / 갈림길</t>
+          <t>쌍벽루</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>정희농박</t>
+          <t>날머리 제장마을 입구</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>아정표</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>탐방지원센터</t>
+          <t>금산 탐방지원센터</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>주의</t>
+          <t>관광자원</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>자연경관</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>안전구조목과구급함</t>
+          <t>자연경과</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>위험 / 갈림길 / 안전구조목구급함</t>
+          <t>자연경관</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>제1야영장</t>
+          <t>화장실</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>쉄터</t>
+          <t>갈림길 53</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>휴양림 숲속의집</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>경관</t>
+          <t>주목</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>사길령표지석</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>무밭</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>낙석위험</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>날머리</t>
+          <t>들머리</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>시루봉쉼터</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>희양폭포</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>구조지점5  비상구급함</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>깃대봉아래쉼터</t>
+          <t>송곳산(깃대봉)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>나리분지 전망대</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>알봉아래쉼터</t>
+          <t>알봉분화구전망대</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>넖은 바위</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>소요별&amp;테마파크</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>첫 조망점</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>계곡</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>오남호수공원 공연장</t>
+          <t>오남호수공원 과 천마산</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>천마산 국립 공원 매점 / 천마산 등산로 마지막 화장실</t>
+          <t>천마산 약수터</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>내지마을 / 사량도 지리산 등산안내도 / 사량도 콜택시</t>
+          <t>사량도~삼천포</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>원각사 진입로 초입</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>오봉샘터 / 쉼터</t>
+          <t>국립공원 안전구급함</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>간이화장실</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>희방 버스정류소</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>소백산 매점</t>
+          <t>버스 정류장</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>대형버스주차장</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>삼불봉고개 쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>갑사 석조약사여래입상</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>동학사 입구</t>
+          <t>동학사 매표소</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>등산로</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>잣나무 단지 / 갈림길</t>
+          <t>사설 공작산 휴양림</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>공작폭포</t>
+          <t>나분들 정류장(군업2리)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>낙엽송식재지역</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>데크길</t>
+          <t>거림탐방지원센타</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>화엄사 매표소앞 화장실</t>
+          <t>상가공용주차장안에 버스정류장 택시승강장</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>대원사  시외버스 승차장</t>
+          <t>교통</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>철계단봉</t>
+          <t>구조목</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>표시목</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>고당봉</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>모산재</t>
+          <t>황매산 오토캠핑장</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>황매산 오토캠핑장</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>정자</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>중봉</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>자연경관</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>대비계곡</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>정구지바위</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>거리목</t>
+          <t>날머리(범연동)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>합수곡</t>
+          <t>식당옆 휴양림 데크</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>새득이봉</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>광덕산</t>
+          <t>백운계곡</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>흥룡사 주차장 / 주차장 안내</t>
+          <t>백운산 계곡</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>백운계곡입구</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>덕산계곡</t>
+          <t>증심교</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>등로 유실 구간 / 덕산계곡</t>
+          <t>등로 유실 구간</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>덕산너덜</t>
+          <t>바람재 방면 광주시가지 조망점</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>방태산주억봉 1,444m</t>
+          <t>등산종료지점</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>웨이포인트 16 / 웨이포인트 17 / 웨이포인트 18 / 촉대봉</t>
+          <t>촉대봉 정상에서</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>주목군락지</t>
+          <t>참나무 고목</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>전망대</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>웨이포인트 13 / 웨이포인트 14</t>
+          <t>관청큰골길 등산로</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>정선 강릉부 삼산봉표</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>가리왕산 자연 휴양림 시설판</t>
+          <t>날머리 휴양림 매표소</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>골말 / 등산로입구 화장실</t>
+          <t>사각정자</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>나무다리 중간</t>
+          <t>예수원정류장</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>긴급재난 안전쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>중봉</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>공중화장실 / 팔각정</t>
+          <t>덕유산국립공원사무소</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>야영장쉼터 / 야영장 쉼터</t>
+          <t>야영장쉼터</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>정수사입구</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>상어흔들바위</t>
+          <t>망탑봉</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>천태산 정상 / 화원동 하산 알림판</t>
+          <t>신음폭포</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>이정구조표지목 / 낙석주의표시판</t>
+          <t>이정구조표시목</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>선유동천나들길종합안내판 / 갈림길 / 용추골쉼터 / 구조표지목</t>
+          <t>용추골쉼터</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>종합안내판</t>
+          <t>숙박및 식당상가</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>명지산 안내소</t>
+          <t>명지산 생태전시관</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>명지산 정상풍경</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>캠핑빌</t>
+          <t>백둔리 버스종점 화장실</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>헬기장</t>
+          <t>백둔봉 국가표지석 있는 이길로 하산해야 되는데 버스 시간이 없어서 계곡길로</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>웨이포인트 57 / 웨이포인트 58</t>
+          <t>용장골계곡</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>옹심이메밀칼국수 / 신라월성대군단소</t>
+          <t>내남휴게소</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>남산휴게소</t>
+          <t>통일전 주차장</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>웨이포인트 25 / 웨이포인트 26</t>
+          <t>웨이포인트 27</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>용장휴게소</t>
+          <t>용장주차장</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>대원사 입구계곡</t>
+          <t>대원사외부 화장실</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>매점</t>
+          <t>운악산휴게소</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>현등사 샘터 / 현등사 화장실</t>
+          <t>현등사 간이화징실</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>매점가</t>
+          <t>주차장</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>먹자거리(200여미터) / 무릉휴게소(복합건물)</t>
+          <t>간이휴게소</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>오십정</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>얼레지쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>삼각점</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>급수대 주상절리</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>가마바위봉</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>동화사</t>
+          <t>통일약사대불</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>갈림길 / 백덕산등산로입구, 백년계곡</t>
+          <t>웨이포인트 1</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>비네소골</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>운교1리 마을 회관 앞 화장실 / 웨이포인트 31</t>
+          <t>먹골정류소</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>백덕산 2Km전</t>
+          <t>등산로폐쇄</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>벌쏘임주의 / 천황사터</t>
+          <t>천황사</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>대피로 / 뱀, 벌주의 / 테이블과 벤치</t>
+          <t>계곡</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>주차장쉼터 / 승강ㅈ1ㆍㅇ / 월출산 / 편의점 및 식당</t>
+          <t>대형주차장앞</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>목구조목</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>경포대산장 / 만남의광장 / 경포대주차장화장실</t>
+          <t>경포대주차장</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>먹자골목</t>
+          <t>사당역</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>날머리 / 하천인근</t>
+          <t>날머리/과천청사역</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>서원곡계곡</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>석전동 봉국사</t>
+          <t>서마산시장</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>만날고개</t>
+          <t>만날고개 입구</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>야생멧돼지 출몰지역 시민 주의사항 알림</t>
+          <t>포스코 백운산 수련원</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>반달 가슴곰 출현주의</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>나그네가든</t>
+          <t>물한계곡주차장</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>3번째  화장실</t>
+          <t>두번째  화장실</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>창녕송현동고분군</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>보호수</t>
+          <t>상월마을회관</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>돌담집</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>체육공원겸 쉼터 / 쉼터</t>
+          <t>약수터</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>유명산 정상</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2매표소</t>
+          <t>날머리</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>앨리스</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>보문사 / 자연경관</t>
+          <t>행구동탐방지원센타</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>구룡주차장</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>구룡사 매표소 / 산장</t>
+          <t>신흥동화장실</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>밀재코스 들머리</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>수리봉 정상</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>계곡</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>옥순대교,충주호</t>
+          <t>옥순대교</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>갈림길 / 망덕봉 정상</t>
+          <t>얼음골 어부네 매운탕</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>금수산 들머리앞 주차장</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>계곡</t>
+          <t>보문정사</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>간이쉼터</t>
+          <t>테이크아웃 커피점</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>가고파 식당 / 고향산천</t>
+          <t>내장산 국립공원 자원봉사센터</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>유군치</t>
+          <t>동구리</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>내장사 단풍터널 입구 / 갈림길</t>
+          <t>탐방센터 단풍</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>커피숖 / 일불사입구</t>
+          <t>군북로 삼거리</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>쉼터 / 성당2리 복지회관</t>
+          <t>성당리2리 정류장(날머리)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>강우관측소가는길</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>서대산청포도식당</t>
+          <t>성당리 지방도(오늘산행 날머리)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>서대산4-1 / 자연경관</t>
+          <t>개덕사길(등산종료)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>먼지 털이개 / 모악산  관광 안내소</t>
+          <t>모악산 주차장</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>헬리포트</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>모악산 관리사무소 / 버스정류장</t>
+          <t>충전소</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>갈림길 / 곰배령 정상 조망점</t>
+          <t>곰배령 정상</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>백년약수터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>연수리 종점</t>
+          <t>쉼터정자</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>용문산자연휴양림</t>
+          <t>농엄기술센터</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>용문산 정상</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>마당바위</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>장흥 천관사 삼층석탑</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>불영봉</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>양근암</t>
+          <t>장안사</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>웨이포인트 49</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>상원사</t>
+          <t>적멸보궁공원지킴터</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>월정사</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>헬기장</t>
+          <t>두로령부근 자작나무 군락지</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>오대산 단풍</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>팔봉산유원지</t>
+          <t>사진찍기 좋은경관 명소</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>갈림길 56</t>
+          <t>입산통제 안내판</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>입산통제소</t>
+          <t>백두대간안내지도판및황악산등산안내판</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>기날쉼터</t>
+          <t>이정표와 안내판</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>복천정사</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>갈림길</t>
+          <t>샘터</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8338,7 +8338,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>수불무산 전위봉</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>프라임캠핑장</t>
+          <t>양통종점 버스정류장</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>웨이포인트 1</t>
+          <t>홍도연안여객선터미널</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>산촌순두부</t>
+          <t>버스정류장</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>능선길 산불 감시 안내소</t>
+          <t>콘도주차장</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>동해바다</t>
+          <t>향로봉</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>명상의 숲  쉼터</t>
+          <t>수목원 내 매점</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>신라식당 / GS25</t>
+          <t>보경사 매표소</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>큰 팥배나무</t>
+          <t>큰상수리나무</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>식수대</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>장성갈재 통일공원</t>
+          <t>교통</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>자연경관</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>자연경관</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>내장산 단풍</t>
+          <t>형제농원</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>남원식당</t>
+          <t>내장산 국립공원 백암사무소</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>가인 주차장 쉼터</t>
+          <t>백양사 매표소</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>은선동삼거리 쉼터</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>옥천사 / 갈림길</t>
+          <t>옥천소류지 주차장</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>장군봉 / 갈림길</t>
+          <t>연화산 도립공원 주차장</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>위험지역</t>
+          <t>자연경관</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>쉼터 / 자연경관</t>
+          <t>쉼터</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>북바위</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>금강문.투구봉.범바위</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>화장실</t>
+          <t>쉼터</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>길상식당등</t>
+          <t>송광사주차장</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>선각당</t>
+          <t>입구쉄터</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>북한산국립공원 북한산성분소</t>
+          <t>갈림길</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>국내산장어도소매</t>
+          <t>북한산성입구 정류소</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>김영희 강남 동태찜</t>
+          <t>롯데아파트(정류소 ID : 01-159)</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>작은선바위</t>
+          <t>월악산 단양분소 단양탐방안내소</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
